--- a/data/preprocessing/departure_patterns/14_days.xlsx
+++ b/data/preprocessing/departure_patterns/14_days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\routes\pattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0B1E3-5D2B-472E-ADD4-37D286842C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715AA836-2417-4170-8A02-E5E836F53451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -484,73 +487,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B64BD-8D7C-457D-A147-3C4B2B03EF4D}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -585,23 +591,26 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
@@ -633,26 +642,29 @@
       <c r="N3" s="14">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
@@ -681,29 +693,32 @@
       <c r="N4" s="14">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -729,19 +744,22 @@
       <c r="N5" s="14">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="14">
@@ -750,11 +768,11 @@
       <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -777,19 +795,22 @@
       <c r="N6" s="14">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="14">
@@ -801,11 +822,11 @@
       <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="14">
         <v>0</v>
@@ -825,19 +846,22 @@
       <c r="N7" s="14">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="14">
@@ -852,11 +876,11 @@
       <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="14">
         <v>0</v>
@@ -873,19 +897,22 @@
       <c r="N8" s="14">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="14">
@@ -903,11 +930,11 @@
       <c r="H9" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
       </c>
       <c r="K9" s="14">
         <v>0</v>
@@ -921,19 +948,22 @@
       <c r="N9" s="14">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="14">
@@ -954,11 +984,11 @@
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
       </c>
       <c r="L10" s="14">
         <v>0</v>
@@ -969,19 +999,22 @@
       <c r="N10" s="14">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="14">
@@ -1005,11 +1038,11 @@
       <c r="J11" s="14">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
       </c>
       <c r="M11" s="14">
         <v>0</v>
@@ -1017,19 +1050,22 @@
       <c r="N11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="14">
@@ -1056,28 +1092,31 @@
       <c r="K12" s="14">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="N12" s="14">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="14">
@@ -1107,25 +1146,28 @@
       <c r="L13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="14">
@@ -1158,22 +1200,25 @@
       <c r="M14" s="14">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="2">
@@ -1209,20 +1254,23 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="9">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -1240,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1257,23 +1305,26 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0</v>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
@@ -1290,11 +1341,11 @@
       <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
       </c>
       <c r="L17" s="14">
         <v>0</v>
@@ -1305,26 +1356,29 @@
       <c r="N17" s="14">
         <v>0</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
@@ -1341,11 +1395,11 @@
       <c r="J18" s="14">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0</v>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
@@ -1353,29 +1407,32 @@
       <c r="N18" s="14">
         <v>0</v>
       </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0</v>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
@@ -1392,28 +1449,31 @@
       <c r="K19" s="14">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
       </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="14">
@@ -1422,11 +1482,11 @@
       <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
       </c>
       <c r="H20" s="14">
         <v>0</v>
@@ -1443,25 +1503,28 @@
       <c r="L20" s="14">
         <v>0</v>
       </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="14">
@@ -1473,11 +1536,11 @@
       <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="I21" s="14">
         <v>0</v>
@@ -1494,22 +1557,25 @@
       <c r="M21" s="14">
         <v>0</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="14">
@@ -1524,11 +1590,11 @@
       <c r="G22" s="14">
         <v>0</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
       </c>
       <c r="J22" s="14">
         <v>0</v>
@@ -1545,20 +1611,23 @@
       <c r="N22" s="14">
         <v>0</v>
       </c>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
         <v>3</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1567,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -1582,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -1593,20 +1662,23 @@
       <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
         <v>3</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
+      <c r="C24" s="6">
+        <v>1</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
@@ -1617,11 +1689,11 @@
       <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0</v>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
@@ -1629,11 +1701,11 @@
       <c r="J24" s="14">
         <v>0</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14">
-        <v>0</v>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
       </c>
       <c r="M24" s="14">
         <v>0</v>
@@ -1641,20 +1713,23 @@
       <c r="N24" s="14">
         <v>0</v>
       </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12">
         <v>3</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
+      <c r="C25" s="6">
+        <v>1</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -1665,11 +1740,11 @@
       <c r="F25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
       </c>
       <c r="I25" s="14">
         <v>0</v>
@@ -1680,32 +1755,35 @@
       <c r="K25" s="14">
         <v>0</v>
       </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14">
-        <v>0</v>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
       </c>
       <c r="N25" s="14">
         <v>0</v>
       </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
         <v>3</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
       </c>
       <c r="E26" s="14">
         <v>0</v>
@@ -1714,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -1728,32 +1806,35 @@
       <c r="K26" s="14">
         <v>0</v>
       </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="14">
-        <v>0</v>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
       </c>
       <c r="N26" s="14">
         <v>0</v>
       </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
         <v>3</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
       </c>
       <c r="E27" s="14">
         <v>0</v>
@@ -1764,11 +1845,11 @@
       <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
       <c r="J27" s="14">
         <v>0</v>
@@ -1776,32 +1857,35 @@
       <c r="K27" s="14">
         <v>0</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="14">
-        <v>0</v>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
       </c>
       <c r="N27" s="14">
         <v>0</v>
       </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0</v>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" s="14">
         <v>0</v>
@@ -1812,11 +1896,11 @@
       <c r="G28" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0</v>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
       <c r="J28" s="14">
         <v>0</v>
@@ -1827,32 +1911,35 @@
       <c r="L28" s="14">
         <v>0</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="14">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
       </c>
       <c r="F29" s="14">
         <v>0</v>
@@ -1860,11 +1947,11 @@
       <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0</v>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="14">
         <v>0</v>
@@ -1875,32 +1962,35 @@
       <c r="L29" s="14">
         <v>0</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="14">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="12">
         <v>3</v>
       </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
       </c>
       <c r="F30" s="14">
         <v>0</v>
@@ -1911,11 +2001,11 @@
       <c r="H30" s="14">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0</v>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
       </c>
       <c r="K30" s="14">
         <v>0</v>
@@ -1923,32 +2013,35 @@
       <c r="L30" s="14">
         <v>0</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12">
         <v>3</v>
       </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
       </c>
       <c r="F31" s="14">
         <v>0</v>
@@ -1959,11 +2052,11 @@
       <c r="H31" s="14">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="14">
-        <v>0</v>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
       </c>
       <c r="K31" s="14">
         <v>0</v>
@@ -1974,32 +2067,35 @@
       <c r="M31" s="14">
         <v>0</v>
       </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12">
         <v>3</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="14">
-        <v>0</v>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
@@ -2007,11 +2103,11 @@
       <c r="H32" s="14">
         <v>0</v>
       </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="14">
-        <v>0</v>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
       </c>
       <c r="K32" s="14">
         <v>0</v>
@@ -2022,32 +2118,35 @@
       <c r="M32" s="14">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -2058,11 +2157,11 @@
       <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="14">
-        <v>0</v>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -2070,32 +2169,35 @@
       <c r="M33" s="14">
         <v>0</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12">
         <v>3</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="14">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="14">
-        <v>0</v>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
       </c>
       <c r="G34" s="14">
         <v>0</v>
@@ -2106,11 +2208,11 @@
       <c r="I34" s="14">
         <v>0</v>
       </c>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -2121,19 +2223,22 @@
       <c r="N34" s="14">
         <v>0</v>
       </c>
-      <c r="O34" s="7">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="O34" s="14">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12">
         <v>3</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="14">
@@ -2142,11 +2247,11 @@
       <c r="E35" s="14">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -2154,11 +2259,11 @@
       <c r="I35" s="14">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0</v>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -2169,19 +2274,22 @@
       <c r="N35" s="14">
         <v>0</v>
       </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="12">
         <v>3</v>
       </c>
-      <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="C36" s="8">
         <v>0</v>
       </c>
       <c r="D36" s="2">
@@ -2191,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2206,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -2217,29 +2325,32 @@
       <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="O36" s="9">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0</v>
+      <c r="C37" s="3">
+        <v>1</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -2248,37 +2359,40 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="4">
         <v>0</v>
       </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12">
         <v>4</v>
       </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="14">
-        <v>0</v>
+      <c r="C38" s="6">
+        <v>1</v>
       </c>
       <c r="D38" s="14">
         <v>0</v>
@@ -2287,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="14">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="14">
-        <v>0</v>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
       </c>
       <c r="K38" s="14">
         <v>0</v>
@@ -2307,38 +2421,41 @@
       <c r="L38" s="14">
         <v>0</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="14">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="M38" s="14">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="12">
         <v>4</v>
       </c>
-      <c r="B39" s="6">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0</v>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
       </c>
       <c r="E39" s="14">
         <v>0</v>
       </c>
       <c r="F39" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="14">
         <v>0</v>
@@ -2346,38 +2463,41 @@
       <c r="I39" s="14">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="14">
-        <v>0</v>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
       </c>
       <c r="L39" s="14">
         <v>0</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="14">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="M39" s="14">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="14">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="13">
         <v>4</v>
       </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
       </c>
       <c r="E40" s="14">
         <v>0</v>
@@ -2385,20 +2505,20 @@
       <c r="F40" s="14">
         <v>0</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0</v>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
       </c>
       <c r="I40" s="14">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="14">
-        <v>0</v>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
       <c r="L40" s="14">
         <v>0</v>
@@ -2406,38 +2526,41 @@
       <c r="M40" s="14">
         <v>0</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="12">
         <v>4</v>
       </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-      <c r="C41" s="14">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
       </c>
       <c r="F41" s="14">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0</v>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
       </c>
       <c r="I41" s="14">
         <v>0</v>
@@ -2445,37 +2568,40 @@
       <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="14">
-        <v>0</v>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
       </c>
       <c r="M41" s="14">
         <v>0</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12">
         <v>4</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-      <c r="C42" s="14">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0</v>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
       <c r="F42" s="14">
         <v>0</v>
@@ -2483,20 +2609,20 @@
       <c r="G42" s="14">
         <v>0</v>
       </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="14">
-        <v>0</v>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
       </c>
       <c r="J42" s="14">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="14">
-        <v>0</v>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
       </c>
       <c r="M42" s="14">
         <v>0</v>
@@ -2504,37 +2630,40 @@
       <c r="N42" s="14">
         <v>0</v>
       </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="O42" s="14">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12">
         <v>4</v>
       </c>
-      <c r="B43" s="6">
-        <v>0</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
       </c>
       <c r="G43" s="14">
         <v>0</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="14">
-        <v>0</v>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
       </c>
       <c r="J43" s="14">
         <v>0</v>
@@ -2542,16 +2671,19 @@
       <c r="K43" s="14">
         <v>0</v>
       </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="14">
-        <v>0</v>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
       </c>
       <c r="N43" s="14">
         <v>0</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="14">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
         <v>1</v>
       </c>
     </row>

--- a/data/preprocessing/departure_patterns/14_days.xlsx
+++ b/data/preprocessing/departure_patterns/14_days.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715AA836-2417-4170-8A02-E5E836F53451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF7488-90C4-445B-909D-BBC9D6606154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -153,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -173,11 +184,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,18 +511,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B64BD-8D7C-457D-A147-3C4B2B03EF4D}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -548,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -599,7 +623,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,7 +674,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -701,7 +725,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -752,7 +776,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -803,7 +827,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -854,7 +878,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -905,7 +929,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -956,7 +980,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1007,7 +1031,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1058,7 +1082,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1109,7 +1133,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1160,7 +1184,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1211,7 +1235,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1262,7 +1286,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1313,7 +1337,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1364,7 +1388,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1415,7 +1439,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1466,7 +1490,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1517,7 +1541,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1568,7 +1592,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1619,7 +1643,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1670,7 +1694,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1721,7 +1745,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1772,7 +1796,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1823,7 +1847,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1874,7 +1898,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1925,7 +1949,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1976,7 +2000,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2027,7 +2051,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2078,7 +2102,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2129,7 +2153,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2180,7 +2204,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2231,7 +2255,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2282,7 +2306,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2333,7 +2357,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2359,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
@@ -2384,7 +2408,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2394,40 +2418,40 @@
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="14">
-        <v>0</v>
-      </c>
-      <c r="E38" s="14">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14">
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="14">
-        <v>0</v>
-      </c>
-      <c r="L38" s="14">
-        <v>0</v>
-      </c>
-      <c r="M38" s="14">
-        <v>0</v>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>0</v>
       </c>
       <c r="P38" s="7">
@@ -2435,7 +2459,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2443,42 +2467,42 @@
         <v>4</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="14">
-        <v>0</v>
-      </c>
-      <c r="M39" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
       </c>
       <c r="N39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="7">
@@ -2486,58 +2510,58 @@
       </c>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>4</v>
       </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="14">
-        <v>0</v>
-      </c>
-      <c r="J40" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="14">
-        <v>0</v>
-      </c>
-      <c r="M40" s="14">
-        <v>0</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0</v>
       </c>
       <c r="P40" s="7">
         <v>0</v>
       </c>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2545,49 +2569,50 @@
         <v>4</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
+      <c r="E41" s="14">
+        <v>0</v>
       </c>
       <c r="F41" s="14">
         <v>0</v>
       </c>
       <c r="G41" s="14">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
       </c>
       <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="14">
-        <v>0</v>
+      <c r="J41" s="1">
+        <v>1</v>
       </c>
       <c r="K41" s="14">
         <v>0</v>
       </c>
-      <c r="L41" s="1">
-        <v>1</v>
+      <c r="L41" s="14">
+        <v>0</v>
       </c>
       <c r="M41" s="14">
         <v>0</v>
       </c>
-      <c r="N41" s="14">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="14">
+        <v>0</v>
       </c>
       <c r="P41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2595,49 +2620,50 @@
         <v>4</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="14">
         <v>0</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
+      <c r="E42" s="14">
+        <v>0</v>
       </c>
       <c r="F42" s="14">
         <v>0</v>
       </c>
-      <c r="G42" s="14">
-        <v>0</v>
+      <c r="G42" s="1">
+        <v>1</v>
       </c>
       <c r="H42" s="14">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
+      <c r="I42" s="14">
+        <v>0</v>
       </c>
       <c r="J42" s="14">
         <v>0</v>
       </c>
       <c r="K42" s="14">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
       </c>
       <c r="M42" s="14">
         <v>0</v>
       </c>
       <c r="N42" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="14">
         <v>0</v>
       </c>
-      <c r="P42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2647,47 +2673,753 @@
       <c r="C43" s="6">
         <v>0</v>
       </c>
-      <c r="D43" s="14">
-        <v>0</v>
-      </c>
-      <c r="E43" s="14">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="14">
-        <v>0</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="16">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="12">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="12">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="12">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14">
+        <v>0</v>
+      </c>
+      <c r="M47" s="14">
+        <v>0</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="12">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1</v>
+      </c>
+      <c r="M48" s="14">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>1</v>
+      </c>
+      <c r="P48" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="12">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="12">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="14">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="12">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <v>1</v>
+      </c>
+      <c r="N54" s="14">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12">
+        <v>4</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="12">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="13">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C79:M83 C58:E78 C2:P57">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>